--- a/testData/WebForm/TC011_WF_RRUserN_OneConditionN_Test.xlsx
+++ b/testData/WebForm/TC011_WF_RRUserN_OneConditionN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="143">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -394,6 +394,60 @@
   </si>
   <si>
     <t>2024-06-29 15:35:29</t>
+  </si>
+  <si>
+    <t>9840077060</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:25:42</t>
+  </si>
+  <si>
+    <t>9840035759</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:26:16</t>
+  </si>
+  <si>
+    <t>9840045705</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:26:50</t>
+  </si>
+  <si>
+    <t>9840065605</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:27:24</t>
+  </si>
+  <si>
+    <t>9840061874</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:27:59</t>
+  </si>
+  <si>
+    <t>9840043349</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:28:32</t>
+  </si>
+  <si>
+    <t>9840075586</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:29:06</t>
+  </si>
+  <si>
+    <t>9840069354</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:29:40</t>
+  </si>
+  <si>
+    <t>9840010315</t>
+  </si>
+  <si>
+    <t>2024-07-04 14:30:14</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1041,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1143,7 +1197,7 @@
         <v>89</v>
       </c>
       <c r="BF2" t="s" s="0">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.35">
@@ -1163,7 +1217,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1196,7 +1250,7 @@
         <v>89</v>
       </c>
       <c r="BF3" t="s" s="0">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.35">
@@ -1216,7 +1270,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1249,7 +1303,7 @@
         <v>89</v>
       </c>
       <c r="BF4" t="s" s="0">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.35">
@@ -1269,7 +1323,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1302,7 +1356,7 @@
         <v>89</v>
       </c>
       <c r="BF5" t="s" s="0">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.35">
@@ -1322,7 +1376,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1355,7 +1409,7 @@
         <v>89</v>
       </c>
       <c r="BF6" t="s" s="0">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.35">
@@ -1375,7 +1429,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1408,7 +1462,7 @@
         <v>89</v>
       </c>
       <c r="BF7" t="s" s="0">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.35">
@@ -1428,7 +1482,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1461,7 +1515,7 @@
         <v>89</v>
       </c>
       <c r="BF8" t="s" s="0">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.35">
@@ -1481,7 +1535,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1514,7 +1568,7 @@
         <v>89</v>
       </c>
       <c r="BF9" t="s" s="0">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.35">
@@ -1534,7 +1588,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1567,7 +1621,7 @@
         <v>89</v>
       </c>
       <c r="BF10" t="s" s="0">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC011_WF_RRUserN_OneConditionN_Test.xlsx
+++ b/testData/WebForm/TC011_WF_RRUserN_OneConditionN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="161">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -448,6 +448,60 @@
   </si>
   <si>
     <t>2024-07-04 14:30:14</t>
+  </si>
+  <si>
+    <t>9840035602</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:21:28</t>
+  </si>
+  <si>
+    <t>9840005669</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:22:10</t>
+  </si>
+  <si>
+    <t>9840040536</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:22:52</t>
+  </si>
+  <si>
+    <t>9840039337</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:23:34</t>
+  </si>
+  <si>
+    <t>9840080145</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:24:15</t>
+  </si>
+  <si>
+    <t>9840002318</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:24:57</t>
+  </si>
+  <si>
+    <t>9840041995</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:25:39</t>
+  </si>
+  <si>
+    <t>9840051566</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:26:23</t>
+  </si>
+  <si>
+    <t>9840028753</t>
+  </si>
+  <si>
+    <t>2024-07-17 13:27:05</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1095,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1197,7 +1251,7 @@
         <v>89</v>
       </c>
       <c r="BF2" t="s" s="0">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.35">
@@ -1217,7 +1271,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1250,7 +1304,7 @@
         <v>89</v>
       </c>
       <c r="BF3" t="s" s="0">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.35">
@@ -1270,7 +1324,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1303,7 +1357,7 @@
         <v>89</v>
       </c>
       <c r="BF4" t="s" s="0">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.35">
@@ -1323,7 +1377,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1356,7 +1410,7 @@
         <v>89</v>
       </c>
       <c r="BF5" t="s" s="0">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.35">
@@ -1376,7 +1430,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1409,7 +1463,7 @@
         <v>89</v>
       </c>
       <c r="BF6" t="s" s="0">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.35">
@@ -1429,7 +1483,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1462,7 +1516,7 @@
         <v>89</v>
       </c>
       <c r="BF7" t="s" s="0">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.35">
@@ -1482,7 +1536,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1515,7 +1569,7 @@
         <v>89</v>
       </c>
       <c r="BF8" t="s" s="0">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.35">
@@ -1535,7 +1589,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1568,7 +1622,7 @@
         <v>89</v>
       </c>
       <c r="BF9" t="s" s="0">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.35">
@@ -1588,7 +1642,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1621,7 +1675,7 @@
         <v>89</v>
       </c>
       <c r="BF10" t="s" s="0">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC011_WF_RRUserN_OneConditionN_Test.xlsx
+++ b/testData/WebForm/TC011_WF_RRUserN_OneConditionN_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="106">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -258,198 +258,9 @@
     <t>WebFormId</t>
   </si>
   <si>
-    <t>9840033217</t>
-  </si>
-  <si>
-    <t>9840006892</t>
-  </si>
-  <si>
-    <t>9840057532</t>
-  </si>
-  <si>
-    <t>9840016016</t>
-  </si>
-  <si>
-    <t>9840030399</t>
-  </si>
-  <si>
-    <t>9840097449</t>
-  </si>
-  <si>
-    <t>9840093652</t>
-  </si>
-  <si>
-    <t>9840044337</t>
-  </si>
-  <si>
-    <t>9840085054</t>
-  </si>
-  <si>
-    <t>9840076177</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
-    <t>2024-06-29 15:18:26</t>
-  </si>
-  <si>
-    <t>9840055213</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:19:02</t>
-  </si>
-  <si>
-    <t>9840082831</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:19:40</t>
-  </si>
-  <si>
-    <t>9840046065</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:20:17</t>
-  </si>
-  <si>
-    <t>9840069476</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:20:55</t>
-  </si>
-  <si>
-    <t>9840018197</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:21:32</t>
-  </si>
-  <si>
-    <t>9840076954</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:22:08</t>
-  </si>
-  <si>
-    <t>9840023786</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:22:45</t>
-  </si>
-  <si>
-    <t>9840095901</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:23:22</t>
-  </si>
-  <si>
-    <t>9840070115</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:30:30</t>
-  </si>
-  <si>
-    <t>9840088182</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:31:08</t>
-  </si>
-  <si>
-    <t>9840053062</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:31:45</t>
-  </si>
-  <si>
-    <t>9840025135</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:32:22</t>
-  </si>
-  <si>
-    <t>9840096833</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:32:59</t>
-  </si>
-  <si>
-    <t>9840089243</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:33:38</t>
-  </si>
-  <si>
-    <t>9840012101</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:34:14</t>
-  </si>
-  <si>
-    <t>9840036837</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:34:51</t>
-  </si>
-  <si>
-    <t>9840033424</t>
-  </si>
-  <si>
-    <t>2024-06-29 15:35:29</t>
-  </si>
-  <si>
-    <t>9840077060</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:25:42</t>
-  </si>
-  <si>
-    <t>9840035759</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:26:16</t>
-  </si>
-  <si>
-    <t>9840045705</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:26:50</t>
-  </si>
-  <si>
-    <t>9840065605</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:27:24</t>
-  </si>
-  <si>
-    <t>9840061874</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:27:59</t>
-  </si>
-  <si>
-    <t>9840043349</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:28:32</t>
-  </si>
-  <si>
-    <t>9840075586</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:29:06</t>
-  </si>
-  <si>
-    <t>9840069354</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:29:40</t>
-  </si>
-  <si>
-    <t>9840010315</t>
-  </si>
-  <si>
-    <t>2024-07-04 14:30:14</t>
-  </si>
-  <si>
     <t>9840035602</t>
   </si>
   <si>
@@ -502,6 +313,30 @@
   </si>
   <si>
     <t>2024-07-17 13:27:05</t>
+  </si>
+  <si>
+    <t>9840089318</t>
+  </si>
+  <si>
+    <t>2024-12-30 15:47:30</t>
+  </si>
+  <si>
+    <t>9840084200</t>
+  </si>
+  <si>
+    <t>2024-12-30 15:48:33</t>
+  </si>
+  <si>
+    <t>9840030251</t>
+  </si>
+  <si>
+    <t>2025-01-03 17:25:49</t>
+  </si>
+  <si>
+    <t>9840052366</t>
+  </si>
+  <si>
+    <t>2025-01-03 17:26:47</t>
   </si>
 </sst>
 </file>
@@ -850,59 +685,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="31.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.28515625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="41" max="42" customWidth="true" width="15.26953125"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="44" max="45" customWidth="true" width="11.453125"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="47" max="53" customWidth="true" width="11.453125"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="12.85546875"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="41" max="42" customWidth="true" width="15.28515625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="44" max="45" customWidth="true" width="11.42578125"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="47" max="53" customWidth="true" width="11.42578125"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -1078,7 +913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1095,7 +930,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1248,13 +1083,13 @@
         <v>141</v>
       </c>
       <c r="BE2" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BF2" t="s" s="0">
-        <v>144</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1271,7 +1106,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1301,13 +1136,13 @@
         <v>17</v>
       </c>
       <c r="BE3" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BF3" t="s" s="0">
-        <v>146</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1324,7 +1159,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1351,16 +1186,16 @@
         <v>54</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="BE4" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BF4" t="s" s="0">
-        <v>148</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1377,7 +1212,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1404,16 +1239,16 @@
         <v>55</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="BE5" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BF5" t="s" s="0">
-        <v>150</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1430,7 +1265,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1457,16 +1292,16 @@
         <v>56</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="BE6" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="BF6" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="BF6" t="s" s="0">
-        <v>152</v>
-      </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1483,7 +1318,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1510,16 +1345,16 @@
         <v>47</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="BE7" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BF7" t="s" s="0">
-        <v>154</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1536,7 +1371,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1563,16 +1398,16 @@
         <v>53</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="BE8" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BF8" t="s" s="0">
-        <v>156</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1589,7 +1424,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1616,16 +1451,16 @@
         <v>54</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="BE9" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BF9" t="s" s="0">
-        <v>158</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1642,7 +1477,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1669,13 +1504,13 @@
         <v>55</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="BE10" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BF10" t="s" s="0">
-        <v>160</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
